--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/144.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/144.xlsx
@@ -479,13 +479,13 @@
         <v>-12.1585453855483</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.720422235587137</v>
+        <v>-9.550209206341856</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.061349702714215</v>
+        <v>-3.045926969966662</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.496364106995042</v>
+        <v>-6.292084905755591</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.09879954146759</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.01035128201716</v>
+        <v>-9.836786623244398</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.022544117091339</v>
+        <v>-3.026262331098389</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.463672626799252</v>
+        <v>-6.25795327224721</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.13552814072106</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.83362146931058</v>
+        <v>-10.66026628738328</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.838191400776994</v>
+        <v>-2.853260641347821</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.346575070182854</v>
+        <v>-6.144010960615669</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.239737778065</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.56172370724749</v>
+        <v>-11.39102626279707</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.7990977844916</v>
+        <v>-2.801873352694046</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.586138027580757</v>
+        <v>-6.378742858264975</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-12.36056507819795</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.41094283877321</v>
+        <v>-12.22979773665509</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.60726936325463</v>
+        <v>-2.62092463511855</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.101958483888044</v>
+        <v>-5.901895004163628</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.45027947553705</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.09796143039279</v>
+        <v>-12.9185837891583</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.547961231381611</v>
+        <v>-2.56509905580143</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.194102111288112</v>
+        <v>-5.998490014529883</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.45606023254188</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.66035439126197</v>
+        <v>-13.47131463053029</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.449336914074888</v>
+        <v>-2.460177340827837</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.68838572942076</v>
+        <v>-5.502317921434148</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.34390191281305</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.66590871102074</v>
+        <v>-14.47473490492586</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.259472338264177</v>
+        <v>-2.259145030693134</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.494344709003538</v>
+        <v>-5.322704618748508</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.08540605905718</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.41464441823621</v>
+        <v>-15.22561774980737</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.231454810182883</v>
+        <v>-2.234557685956372</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.122038893093373</v>
+        <v>-4.949089572554172</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.68240333497161</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.11378648228723</v>
+        <v>-15.91649857076526</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.024216748501201</v>
+        <v>-2.030304669322604</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.88862931803108</v>
+        <v>-4.716583366387958</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-11.15566517438347</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.76379313377324</v>
+        <v>-16.56723839121041</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.131036847386844</v>
+        <v>-2.115051145617097</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.36244966682211</v>
+        <v>-4.186567670446362</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-10.5459703829147</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.74211546362123</v>
+        <v>-17.54903018131145</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.919884187155486</v>
+        <v>-1.909174683430954</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.695095714070807</v>
+        <v>-3.530198159779268</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-9.916456023057316</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.33362570601041</v>
+        <v>-18.14267446906383</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.661049359974562</v>
+        <v>-1.645692088741217</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.418285155088193</v>
+        <v>-3.23804342186615</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-9.324277127579508</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.25936934764601</v>
+        <v>-19.06117806722797</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.521878180767014</v>
+        <v>-1.502789603223777</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.824706328850016</v>
+        <v>-2.644674072473441</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-8.827840335225474</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.17899888385454</v>
+        <v>-19.97542666696854</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.352620889629179</v>
+        <v>-1.336831572402057</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.402819962078236</v>
+        <v>-2.235277762612667</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-8.457558947581203</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.9760190039503</v>
+        <v>-20.77298357148081</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.171737633567892</v>
+        <v>-1.144374720628684</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.908847375859911</v>
+        <v>-1.734065132922868</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-8.231456789501282</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.93732134010403</v>
+        <v>-21.73535947646757</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.071123286229227</v>
+        <v>-1.047622602628329</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.538060267079387</v>
+        <v>-1.369758714048999</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-8.143520826820835</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.78184033490957</v>
+        <v>-22.57780988742411</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9726953534651304</v>
+        <v>-0.9402395347204914</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.186937797167136</v>
+        <v>-1.01084632394592</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-8.169466637064671</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.47008960299627</v>
+        <v>-23.25557222093459</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.7560701106459308</v>
+        <v>-0.7142663876722994</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.8512511523052793</v>
+        <v>-0.6742955870965097</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-8.282039749854132</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.08265226835495</v>
+        <v>-23.87119848515823</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4827551965220574</v>
+        <v>-0.4343005837048292</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.4898381323594312</v>
+        <v>-0.3189181187606974</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-8.438553027921653</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.75339712754226</v>
+        <v>-24.53551502365026</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.3270746234310927</v>
+        <v>-0.2620713398219228</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.31066996797041</v>
+        <v>-0.1697182355763871</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-8.607089829715619</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.17682838604937</v>
+        <v>-24.96913209376822</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.261390540074153</v>
+        <v>-0.1925904886408825</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1118240724102744</v>
+        <v>0.03751982610529483</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-8.752873207618387</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.61557763888129</v>
+        <v>-25.39694927372731</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.2928382514999791</v>
+        <v>-0.222964631233687</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.08464445171085111</v>
+        <v>0.0537280970233517</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-8.85575067480827</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.86997417539887</v>
+        <v>-25.65507711655478</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01085080521669883</v>
+        <v>0.07988651810112039</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.07703782375980826</v>
+        <v>0.05558720402687681</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-8.900273779637986</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.87843180303462</v>
+        <v>-25.65861203832204</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.02030887554660921</v>
+        <v>0.05641201910590555</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.2417259012058805</v>
+        <v>-0.1071763049014617</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-8.878487518821673</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.89132772133372</v>
+        <v>-25.65965942254938</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.2155282032195866</v>
+        <v>-0.1408104309018559</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2160780799389391</v>
+        <v>-0.0866475740456352</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-8.794361732570223</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.94225677938804</v>
+        <v>-25.72035533852362</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.01987682955283225</v>
+        <v>0.04156534768338819</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.5140458003137827</v>
+        <v>-0.3806745112651193</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-8.65173166347742</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.03364105322328</v>
+        <v>-25.79953758611038</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.07587260880689464</v>
+        <v>-0.01450898538772456</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.5797822528820893</v>
+        <v>-0.4511372851592889</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-8.466037917669571</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.77843279392952</v>
+        <v>-25.55420092315928</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.1767618945052357</v>
+        <v>-0.1183833161339792</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.7263374908923709</v>
+        <v>-0.6065298275877357</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-8.250144045481381</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.35085127542159</v>
+        <v>-25.1175988079934</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.1860967064313864</v>
+        <v>-0.1273515435805616</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.244674852699148</v>
+        <v>-1.120546729456743</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-8.025191535735528</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.41849920420479</v>
+        <v>-25.17631778623854</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.107110843387253</v>
+        <v>-0.05543552407096025</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.400826748692414</v>
+        <v>-1.26350158418555</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.808602037606803</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.00085474355372</v>
+        <v>-24.76656798420104</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.1562593482550927</v>
+        <v>-0.1069537357531523</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.900258825195739</v>
+        <v>-1.75941183122445</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.614518117491135</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.37087931541555</v>
+        <v>-24.14472287612757</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2104483897169969</v>
+        <v>-0.1732662496464949</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.936642334792896</v>
+        <v>-1.804056583914736</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.456310618200798</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.01626120064456</v>
+        <v>-23.79326000634144</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.4102369310817367</v>
+        <v>-0.3726751142288246</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.069254270276739</v>
+        <v>-1.924885446841025</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.33568324204037</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.22844496944653</v>
+        <v>-23.01527609457755</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5095551404390707</v>
+        <v>-0.4773873523569497</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.241928652456264</v>
+        <v>-2.101841012049795</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.257018987726352</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.4362951860079</v>
+        <v>-22.22478903359981</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.4573299444034254</v>
+        <v>-0.4213784808000456</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.401471454885538</v>
+        <v>-2.254654370818422</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.213672486386612</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.05796691079054</v>
+        <v>-21.84039902216674</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5159310919229912</v>
+        <v>-0.4810401048497913</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.672979631217253</v>
+        <v>-2.522968025256756</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.201234954692371</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.40373144548665</v>
+        <v>-21.19002578620115</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.4488068552534617</v>
+        <v>-0.4029183337932118</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.856206409487209</v>
+        <v>-2.699282067626281</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.210965201012344</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.01503406641864</v>
+        <v>-20.80983840398027</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6447724441884175</v>
+        <v>-0.6147517937723396</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.051425737160187</v>
+        <v>-2.900968992903071</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.234205570221967</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.39627874181582</v>
+        <v>-20.20602139691986</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.430582369697779</v>
+        <v>-0.3881371238849031</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.957449187362277</v>
+        <v>-2.799084692188758</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.266484087008691</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.88904365281883</v>
+        <v>-19.68708178918236</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.1856253835290843</v>
+        <v>-0.1456153060447694</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.051504290977237</v>
+        <v>-2.876551848103252</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.300207687850825</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.97343345358272</v>
+        <v>-18.77665614187158</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.1660523907807038</v>
+        <v>-0.1302580348114247</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.024507962517598</v>
+        <v>-2.839003123553181</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.33875526245039</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.64257786846946</v>
+        <v>-18.4493092939199</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.1166682244617131</v>
+        <v>-0.08311265227836916</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.251397570764711</v>
+        <v>-3.058901442082812</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.381715619775436</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.08005398457186</v>
+        <v>-17.89608094503992</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.1430884915963163</v>
+        <v>-0.1080142122833321</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.317173300241543</v>
+        <v>-3.120042496353673</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.438652720257857</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.61950604750846</v>
+        <v>-17.44389898949239</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.07043930312757833</v>
+        <v>-0.03901777630743576</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.144446548850651</v>
+        <v>-2.965762799666773</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.5149813515339</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.93576053159931</v>
+        <v>-16.76578316380519</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.1187499006135475</v>
+        <v>-0.08020616104750597</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.517878302805203</v>
+        <v>-3.329728818666758</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.621671723673484</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.27664163733546</v>
+        <v>-16.1079734998255</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.07815066950135498</v>
+        <v>-0.047370665520457</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.385790059435029</v>
+        <v>-3.21240869290205</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.768811044483225</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.64635199392908</v>
+        <v>-15.49605235730607</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01548548042266986</v>
+        <v>0.05019317525608567</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.672747153119981</v>
+        <v>-3.48478096122132</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.959863292713697</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.93279530444933</v>
+        <v>-14.79149007987858</v>
       </c>
       <c r="F50" t="n">
-        <v>0.09691960409820601</v>
+        <v>0.1421535104163696</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.630773230209407</v>
+        <v>-3.440398054587869</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.202026372425687</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.1157046840972</v>
+        <v>-13.97589198205041</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1256703011386364</v>
+        <v>0.1682202853742462</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.792345339579148</v>
+        <v>-3.586534338907215</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.490201471067991</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.53130356215108</v>
+        <v>-13.38778573840008</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1932920453161516</v>
+        <v>0.2359860448830203</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.714799629847605</v>
+        <v>-3.53104915946398</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.826433419213854</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.86608365476298</v>
+        <v>-12.73203156596654</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2625110504403573</v>
+        <v>0.3008453131609312</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.766461856861056</v>
+        <v>-3.577958880545884</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.201562141652222</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.48292431979702</v>
+        <v>-12.35065278418706</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1315618374174132</v>
+        <v>0.1792178197612961</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.956234786551875</v>
+        <v>-3.752819677299978</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.611665017725754</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.9072164869378</v>
+        <v>-11.79822306578043</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.03419980886168057</v>
+        <v>-0.00196655926535099</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.379220906762361</v>
+        <v>-4.189264684831758</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-10.05057204872</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.47836501505422</v>
+        <v>-11.37136162392879</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.03836316116534946</v>
+        <v>0.007734837140368027</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.4925347878575</v>
+        <v>-4.294291138228084</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-10.50575536675507</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.70378510202918</v>
+        <v>-10.59993695588861</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.08608460502344098</v>
+        <v>-0.04382265145034923</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.906840711283921</v>
+        <v>-4.697350773513463</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-10.97633442105168</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.44458369036869</v>
+        <v>-10.33713516094664</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.2522913895991534</v>
+        <v>-0.2125431581716731</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.921268429015504</v>
+        <v>-4.718691227145476</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-11.44883495341747</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.834901331635189</v>
+        <v>-9.737704075338215</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.1990842708503787</v>
+        <v>-0.1552381486334381</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.228060361505671</v>
+        <v>-5.020115315470536</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-11.92257208326708</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.508117452705706</v>
+        <v>-9.398063555018158</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.3038488781898707</v>
+        <v>-0.2630925394435774</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.108030129052726</v>
+        <v>-4.907351311094749</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-12.38772579501908</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.946379106978608</v>
+        <v>-8.842989191437498</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.3305309913813084</v>
+        <v>-0.2892378682185044</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.480414498779941</v>
+        <v>-5.282131572241999</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-12.84159677561743</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.470094221899455</v>
+        <v>-8.365054676200288</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.282613162980591</v>
+        <v>-0.2443050848657005</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.505630274053106</v>
+        <v>-5.302398457040992</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-13.28251349851348</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.020190327046381</v>
+        <v>-7.916957519139371</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.2982715571792954</v>
+        <v>-0.2619273244906638</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.48807349594235</v>
+        <v>-5.28478930971887</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-13.7020040379706</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.669905764516</v>
+        <v>-7.560702866513163</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.4502208239603681</v>
+        <v>-0.4166390671713407</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.666233553012558</v>
+        <v>-5.469875194992351</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-14.10305625326451</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.317330048988317</v>
+        <v>-7.209541119692386</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.3774538047660546</v>
+        <v>-0.3484543539716314</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.91586449129575</v>
+        <v>-5.727859022488563</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-14.47318586698064</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.064098727423652</v>
+        <v>-6.958954443301749</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4963842837802943</v>
+        <v>-0.4651198645942524</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.869570108447406</v>
+        <v>-5.687940591124141</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-14.81233486960888</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.897721742910996</v>
+        <v>-6.792276335823734</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.5931233094778081</v>
+        <v>-0.5595677372944642</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.956921953007403</v>
+        <v>-5.779377234170756</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-15.11358131519647</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.616774016230397</v>
+        <v>-6.51402562352853</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.5408064673222708</v>
+        <v>-0.5055096188609773</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.921703658363159</v>
+        <v>-5.751372798392303</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-15.37115050047589</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.504324227122812</v>
+        <v>-6.395160606028499</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8360378964031936</v>
+        <v>-0.7968133570893823</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.946317187705604</v>
+        <v>-5.785975754802985</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-15.58577130781922</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.315768881596273</v>
+        <v>-6.203384554002896</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7421399004223342</v>
+        <v>-0.7101030353686306</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.777858527041115</v>
+        <v>-5.622714738366661</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-15.74900188941207</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.234753711611671</v>
+        <v>-6.11459255613031</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.8120397052943097</v>
+        <v>-0.7790732867388435</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.68536140746432</v>
+        <v>-5.536933970147672</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-15.86687734869864</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.246549876472067</v>
+        <v>-6.12051027701477</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9426747030490524</v>
+        <v>-0.9056627629154929</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.49793199998217</v>
+        <v>-5.362819434655557</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-15.93512994061913</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.303174086262533</v>
+        <v>-6.176047825669372</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.9975707288644099</v>
+        <v>-0.9579403281625051</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.325558740768005</v>
+        <v>-5.186191177017831</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-15.95794558800174</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.5201659135613</v>
+        <v>-6.393589529687493</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.8768858812693789</v>
+        <v>-0.8373340343845245</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.177039657331465</v>
+        <v>-5.043498168345859</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-15.94172630693601</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.694084064510789</v>
+        <v>-6.571343725369607</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.222313199445479</v>
+        <v>-1.176751985556273</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.008109673764673</v>
+        <v>-4.874987138470003</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-15.88706168382156</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.164228659557172</v>
+        <v>-7.045442195874192</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.15730991583631</v>
+        <v>-1.108868395321923</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.780041758261805</v>
+        <v>-4.658584464799112</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-15.80594486938231</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.593512177434528</v>
+        <v>-7.483942694952122</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.224460337111523</v>
+        <v>-1.172549356344079</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.715274136103786</v>
+        <v>-4.588841767561237</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-15.69823968482532</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.195182046828892</v>
+        <v>-8.084421164787889</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.276345133273283</v>
+        <v>-1.230456611813033</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.354057500700564</v>
+        <v>-4.220516011714958</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-15.57591981922722</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.606594571327291</v>
+        <v>-8.496841796605102</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.292762881036807</v>
+        <v>-1.236505255725911</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.213747291145785</v>
+        <v>-4.075283096291691</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-15.4423310287518</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.054875020627993</v>
+        <v>-8.948827367610011</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.409965176075939</v>
+        <v>-1.365150223448711</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.859142268677635</v>
+        <v>-3.718465474643288</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-15.30354282050561</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.941957091971984</v>
+        <v>-9.843214943939685</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.391753782823098</v>
+        <v>-1.33912272539936</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.866552512086052</v>
+        <v>-3.719971089470087</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-15.16997819631214</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.69366475193253</v>
+        <v>-10.60537026156793</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.475950382398239</v>
+        <v>-1.421551864090867</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.662103110909658</v>
+        <v>-3.51967194829452</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-15.04077004168162</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.48213559827264</v>
+        <v>-11.40167030500739</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.610120301920247</v>
+        <v>-1.553757938186617</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.332844786743089</v>
+        <v>-3.184181687975289</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-14.92827203894413</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.67022280425075</v>
+        <v>-12.58615712770403</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.676825584898842</v>
+        <v>-1.622296143563053</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.186695410120901</v>
+        <v>-3.039852141448101</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-14.83134297418609</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.54861158650784</v>
+        <v>-13.47141936895302</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.741148068760242</v>
+        <v>-1.69144968717305</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.855041194534296</v>
+        <v>-2.709860648322395</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-14.76065790952212</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.66749287966459</v>
+        <v>-14.60293473435204</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.927530092015054</v>
+        <v>-1.879311140648977</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.601142165524702</v>
+        <v>-2.453788297041075</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-14.7176073760388</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.72288959634181</v>
+        <v>-15.66510017159843</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.958205357573218</v>
+        <v>-1.911387282611206</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.171871739950188</v>
+        <v>-2.028327731593503</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-14.70784905053999</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.11686635680891</v>
+        <v>-17.06210125402197</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.904251977562465</v>
+        <v>-1.870094159448402</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.898177149043904</v>
+        <v>-1.745887482388947</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-14.74105694611897</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.74365044640759</v>
+        <v>-18.69695020217115</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.125158403410909</v>
+        <v>-2.089508062772889</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.718485292541214</v>
+        <v>-1.566392010428882</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-14.8167440880406</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.3218751847663</v>
+        <v>-20.2791419082909</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.337803586166224</v>
+        <v>-2.308162612532556</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.435783197279823</v>
+        <v>-1.283532807533391</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-14.94700425801521</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.02197617027863</v>
+        <v>-22.00177474699385</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.496613219636361</v>
+        <v>-2.47794359578406</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.574234299831076</v>
+        <v>-1.424288155384788</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-15.12674795706174</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.6706898671372</v>
+        <v>-23.66105393224569</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.606182702118767</v>
+        <v>-2.581529895867797</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.373987527866876</v>
+        <v>-1.22375335275807</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-15.35793119043869</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.77390285714628</v>
+        <v>-25.76473824515707</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.718017152992791</v>
+        <v>-2.705697296018727</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.346100922814</v>
+        <v>-1.197896054645661</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-15.62625156726712</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.98918595948054</v>
+        <v>-27.98525826862802</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.566355916874236</v>
+        <v>-2.558277966020891</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.44213296415806</v>
+        <v>-1.301770385391915</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-15.91797084737459</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.25152279822796</v>
+        <v>-30.25380085892242</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.005851430968138</v>
+        <v>-3.005733600242563</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.798544724418369</v>
+        <v>-1.653573655051936</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-16.21275520336852</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.48064446466593</v>
+        <v>-32.47921740365618</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.020449348636663</v>
+        <v>-3.032782297913569</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.057589028444761</v>
+        <v>-1.907996376175199</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-16.48174173286543</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.72063274246253</v>
+        <v>-34.71399494492177</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.298333476452299</v>
+        <v>-3.324164589959024</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.237307069553135</v>
+        <v>-2.095347229840299</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-16.69865713926919</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.22382867658918</v>
+        <v>-37.22117093911231</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.549168906596929</v>
+        <v>-3.57291834395182</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.685796995699303</v>
+        <v>-2.53482965163136</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-16.84338643244504</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.68082187398739</v>
+        <v>-39.69462116118257</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.483681207782614</v>
+        <v>-3.503358938953729</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.163378018759786</v>
+        <v>-3.009464906552455</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-16.88479723423491</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.25091947563526</v>
+        <v>-42.26309531727807</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.661946003275557</v>
+        <v>-3.681636826749513</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.455113802981968</v>
+        <v>-3.309579764593341</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-16.83720320128226</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.54783308618769</v>
+        <v>-44.55707625199395</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.86759989631339</v>
+        <v>-3.891532625908065</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.975899425420148</v>
+        <v>-3.846259442681376</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-16.65406368944851</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.86637518103464</v>
+        <v>-46.87413891661978</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.996493617790183</v>
+        <v>-4.023647053883923</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.2812119276892</v>
+        <v>-4.149136776621868</v>
       </c>
     </row>
   </sheetData>
